--- a/data/scheduling_DNN/predict/0.1/result15.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result15.xlsx
@@ -570,10 +570,10 @@
         <v>0.9342160224914551</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.8815784454345703</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2484670877456665</v>
+        <v>0.002770714461803436</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.023137807846069</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.5304471254348755</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3243976235389709</v>
+        <v>0.2427441030740738</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9011509418487549</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.4860616326332092</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2163428962230682</v>
+        <v>0.1722991317510605</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.898996114730835</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.4840424060821533</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1203314960002899</v>
+        <v>0.1721865832805634</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.878993034362793</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.8817353844642639</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1371068507432938</v>
+        <v>7.520483904954745e-06</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>1.031430959701538</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.4822555780410767</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1645621955394745</v>
+        <v>0.3015936017036438</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8685171604156494</v>
       </c>
       <c r="V8" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.5304885506629944</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002707005944103003</v>
+        <v>0.1142633408308029</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8606882095336914</v>
       </c>
       <c r="V9" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.4679606556892395</v>
       </c>
       <c r="W9" t="n">
-        <v>0.002378636039793491</v>
+        <v>0.1542349308729172</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8683362007141113</v>
       </c>
       <c r="V10" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.9012495279312134</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01484890747815371</v>
+        <v>0.001083287061192095</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9071619510650635</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.4675922989845276</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2219703644514084</v>
+        <v>0.1932214796543121</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8600330352783203</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.4793147444725037</v>
       </c>
       <c r="W12" t="n">
-        <v>0.03493776544928551</v>
+        <v>0.1449464112520218</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8671779632568359</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.8955636024475098</v>
       </c>
       <c r="W13" t="n">
-        <v>0.04256289452314377</v>
+        <v>0.0008057444938458502</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>1.047449827194214</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.8693979382514954</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1817782819271088</v>
+        <v>0.03170247375965118</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>1.682579040527344</v>
       </c>
       <c r="V15" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.9465970396995544</v>
       </c>
       <c r="W15" t="n">
-        <v>1.126520752906799</v>
+        <v>0.541669487953186</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>1.150499820709229</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.4772630333900452</v>
       </c>
       <c r="W16" t="n">
-        <v>0.2400274723768234</v>
+        <v>0.4532477855682373</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>1.07387113571167</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.5083311200141907</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2477953433990479</v>
+        <v>0.3198355138301849</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8718039989471436</v>
       </c>
       <c r="V18" t="n">
-        <v>0.56818687915802</v>
+        <v>0.4830238223075867</v>
       </c>
       <c r="W18" t="n">
-        <v>0.09218335896730423</v>
+        <v>0.1511500328779221</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8642990589141846</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.9325107336044312</v>
       </c>
       <c r="W19" t="n">
-        <v>0.08724849671125412</v>
+        <v>0.004652832634747028</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8686230182647705</v>
       </c>
       <c r="V20" t="n">
-        <v>0.473930835723877</v>
+        <v>0.4839120507240295</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1557819247245789</v>
+        <v>0.1480025351047516</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.9269611835479736</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.9181557297706604</v>
       </c>
       <c r="W21" t="n">
-        <v>0.08963477611541748</v>
+        <v>7.753601676085964e-05</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5190451145172119</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.870985209941864</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01904673501849174</v>
+        <v>0.1238618344068527</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5284709930419922</v>
       </c>
       <c r="V23" t="n">
-        <v>0.436014860868454</v>
+        <v>0.4920217394828796</v>
       </c>
       <c r="W23" t="n">
-        <v>0.008548136800527573</v>
+        <v>0.001328548067249358</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5294950008392334</v>
       </c>
       <c r="V24" t="n">
-        <v>0.630542516708374</v>
+        <v>0.4864350557327271</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01021060068160295</v>
+        <v>0.001854158821515739</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5208120346069336</v>
       </c>
       <c r="V25" t="n">
-        <v>0.57613205909729</v>
+        <v>0.5337427854537964</v>
       </c>
       <c r="W25" t="n">
-        <v>0.003060305025428534</v>
+        <v>0.0001672043144935742</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5446240901947021</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.9353261590003967</v>
       </c>
       <c r="W26" t="n">
-        <v>0.005617874674499035</v>
+        <v>0.1526481062173843</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5196478366851807</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.4770756363868713</v>
       </c>
       <c r="W27" t="n">
-        <v>0.001135038561187685</v>
+        <v>0.001812392263673246</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.515826940536499</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.9491827487945557</v>
       </c>
       <c r="W28" t="n">
-        <v>0.09178037941455841</v>
+        <v>0.1877972632646561</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5127511024475098</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.4892930388450623</v>
       </c>
       <c r="W29" t="n">
-        <v>0.003022175515070558</v>
+        <v>0.0005502807325683534</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5245919227600098</v>
       </c>
       <c r="V30" t="n">
-        <v>0.6257109642028809</v>
+        <v>1.035354733467102</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01022506039589643</v>
+        <v>0.2608786523342133</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5077509880065918</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.4855996966362</v>
       </c>
       <c r="W31" t="n">
-        <v>0.002512485953047872</v>
+        <v>0.0004906796966679394</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5565359592437744</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.8804801106452942</v>
       </c>
       <c r="W32" t="n">
-        <v>0.004602133296430111</v>
+        <v>0.1049398109316826</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.51717209815979</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.9224089980125427</v>
       </c>
       <c r="W33" t="n">
-        <v>0.006630551535636187</v>
+        <v>0.1642169505357742</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5249598026275635</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.4677359461784363</v>
       </c>
       <c r="W34" t="n">
-        <v>0.002379703102633357</v>
+        <v>0.003274569753557444</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5187931060791016</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.4794808030128479</v>
       </c>
       <c r="W35" t="n">
-        <v>0.006742177531123161</v>
+        <v>0.001545457169413567</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5074529647827148</v>
       </c>
       <c r="V36" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.9797500967979431</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01245757564902306</v>
+        <v>0.223064586520195</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5697779655456543</v>
       </c>
       <c r="V37" t="n">
-        <v>0.624285101890564</v>
+        <v>0.4937031865119934</v>
       </c>
       <c r="W37" t="n">
-        <v>0.002971027977764606</v>
+        <v>0.005787372123450041</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5191810131072998</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.5777066946029663</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0042723398655653</v>
+        <v>0.003425255417823792</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5196759700775146</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.4726766347885132</v>
       </c>
       <c r="W39" t="n">
-        <v>0.009863543324172497</v>
+        <v>0.002208937425166368</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5162498950958252</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.4917194843292236</v>
       </c>
       <c r="W40" t="n">
-        <v>0.003423626534640789</v>
+        <v>0.0006017410778440535</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5356690883636475</v>
       </c>
       <c r="V41" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.9184146523475647</v>
       </c>
       <c r="W41" t="n">
-        <v>0.001278695533983409</v>
+        <v>0.1464941650629044</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.398123025894165</v>
       </c>
       <c r="V42" t="n">
-        <v>0.436027318239212</v>
+        <v>0.4867246747016907</v>
       </c>
       <c r="W42" t="n">
-        <v>0.001436735386960208</v>
+        <v>0.007850252091884613</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4129400253295898</v>
       </c>
       <c r="V43" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.4928632378578186</v>
       </c>
       <c r="W43" t="n">
-        <v>0.1682912260293961</v>
+        <v>0.006387719884514809</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.391711950302124</v>
       </c>
       <c r="V44" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.4896746277809143</v>
       </c>
       <c r="W44" t="n">
-        <v>0.05421765893697739</v>
+        <v>0.009596685878932476</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.388361930847168</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.86281818151474</v>
       </c>
       <c r="W45" t="n">
-        <v>0.02763347141444683</v>
+        <v>0.225108727812767</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3913898468017578</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.5777608156204224</v>
       </c>
       <c r="W46" t="n">
-        <v>0.001992506440728903</v>
+        <v>0.03473413735628128</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.409207820892334</v>
       </c>
       <c r="V47" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.5132386088371277</v>
       </c>
       <c r="W47" t="n">
-        <v>0.04780922457575798</v>
+        <v>0.01082240510731936</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3926000595092773</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.5301946401596069</v>
       </c>
       <c r="W48" t="n">
-        <v>0.05426274612545967</v>
+        <v>0.01893226802349091</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.4409110546112061</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.47752845287323</v>
       </c>
       <c r="W49" t="n">
-        <v>0.003653909079730511</v>
+        <v>0.001340833841823041</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3870019912719727</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.4933573007583618</v>
       </c>
       <c r="W50" t="n">
-        <v>0.002403059042990208</v>
+        <v>0.01131145190447569</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3897349834442139</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.4922590851783752</v>
       </c>
       <c r="W51" t="n">
-        <v>0.02671009674668312</v>
+        <v>0.01051119156181812</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.398123025894165</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.4674584269523621</v>
       </c>
       <c r="W52" t="n">
-        <v>0.02327957190573215</v>
+        <v>0.004807397723197937</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3910880088806152</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.5301632881164551</v>
       </c>
       <c r="W53" t="n">
-        <v>0.002025022869929671</v>
+        <v>0.01934193260967731</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3889739513397217</v>
       </c>
       <c r="V54" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.4665356874465942</v>
       </c>
       <c r="W54" t="n">
-        <v>0.05401832237839699</v>
+        <v>0.006015822757035494</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.4863450527191162</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.8913475871086121</v>
       </c>
       <c r="W55" t="n">
-        <v>0.007518826518207788</v>
+        <v>0.1640270501375198</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.4102480411529541</v>
       </c>
       <c r="V56" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.8852265477180481</v>
       </c>
       <c r="W56" t="n">
-        <v>0.04635505005717278</v>
+        <v>0.2256045788526535</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.4915928840637207</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.4823759794235229</v>
       </c>
       <c r="W57" t="n">
-        <v>0.001329491147771478</v>
+        <v>8.495133079122752e-05</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.4040510654449463</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.9947759509086609</v>
       </c>
       <c r="W58" t="n">
-        <v>0.009545988403260708</v>
+        <v>0.348955899477005</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.4029800891876221</v>
       </c>
       <c r="V59" t="n">
-        <v>0.56879723072052</v>
+        <v>0.4771795272827148</v>
       </c>
       <c r="W59" t="n">
-        <v>0.02749532461166382</v>
+        <v>0.005505556706339121</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3911981582641602</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.5132096409797668</v>
       </c>
       <c r="W60" t="n">
-        <v>0.02570079639554024</v>
+        <v>0.01488680206239223</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.4356679916381836</v>
       </c>
       <c r="V61" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.5323053598403931</v>
       </c>
       <c r="W61" t="n">
-        <v>0.01974696852266788</v>
+        <v>0.009338781237602234</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.891855001449585</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.4932759404182434</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1772927790880203</v>
+        <v>0.1588652729988098</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8526670932769775</v>
       </c>
       <c r="V63" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.4984263181686401</v>
       </c>
       <c r="W63" t="n">
-        <v>0.0134767908602953</v>
+        <v>0.1254865229129791</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8711769580841064</v>
       </c>
       <c r="V64" t="n">
-        <v>0.816550612449646</v>
+        <v>0.5763848423957825</v>
       </c>
       <c r="W64" t="n">
-        <v>0.00298403762280941</v>
+        <v>0.08690239489078522</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.9165539741516113</v>
       </c>
       <c r="V65" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.5773378014564514</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1356980353593826</v>
+        <v>0.1150676086544991</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8673610687255859</v>
       </c>
       <c r="V66" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.4674669504165649</v>
       </c>
       <c r="W66" t="n">
-        <v>0.002588029950857162</v>
+        <v>0.1599153131246567</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8583920001983643</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.4771702289581299</v>
       </c>
       <c r="W67" t="n">
-        <v>0.09383884817361832</v>
+        <v>0.1453300416469574</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8842980861663818</v>
       </c>
       <c r="V68" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.9233013987541199</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1426109820604324</v>
+        <v>0.001521258382126689</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.9189949035644531</v>
       </c>
       <c r="V69" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.9007586240768433</v>
       </c>
       <c r="W69" t="n">
-        <v>0.08960993587970734</v>
+        <v>0.0003325619036331773</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8635451793670654</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.5773293375968933</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1290439963340759</v>
+        <v>0.08191950619220734</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.9085090160369873</v>
       </c>
       <c r="V71" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.8924476504325867</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1654596924781799</v>
+        <v>0.0002579674765001982</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8609588146209717</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.9062123894691467</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1644927263259888</v>
+        <v>0.00204788614064455</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.936100959777832</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.5300987958908081</v>
       </c>
       <c r="W73" t="n">
-        <v>0.201895073056221</v>
+        <v>0.1648377627134323</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8700659275054932</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.4678401947021484</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1464998424053192</v>
+        <v>0.1617855429649353</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8739500045776367</v>
       </c>
       <c r="V75" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.9417790174484253</v>
       </c>
       <c r="W75" t="n">
-        <v>0.09484823048114777</v>
+        <v>0.004600774962455034</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8743538856506348</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.5318319201469421</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1374779790639877</v>
+        <v>0.1173212975263596</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.9369819164276123</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.4794776439666748</v>
       </c>
       <c r="W77" t="n">
-        <v>0.2297719120979309</v>
+        <v>0.2093101590871811</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8635709285736084</v>
       </c>
       <c r="V78" t="n">
-        <v>0.390147477388382</v>
+        <v>0.5777623057365417</v>
       </c>
       <c r="W78" t="n">
-        <v>0.2241297662258148</v>
+        <v>0.08168657124042511</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.9176139831542969</v>
       </c>
       <c r="V79" t="n">
-        <v>0.476378470659256</v>
+        <v>0.5493639707565308</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1946887820959091</v>
+        <v>0.1356080770492554</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8652858734130859</v>
       </c>
       <c r="V80" t="n">
-        <v>0.618610143661499</v>
+        <v>0.892677366733551</v>
       </c>
       <c r="W80" t="n">
-        <v>0.0608489140868187</v>
+        <v>0.0007502938969992101</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.9316627979278564</v>
       </c>
       <c r="V81" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.5174294710159302</v>
       </c>
       <c r="W81" t="n">
-        <v>0.182878389954567</v>
+        <v>0.1715892553329468</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5331919193267822</v>
       </c>
       <c r="V82" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.8781527280807495</v>
       </c>
       <c r="W82" t="n">
-        <v>0.007369608618319035</v>
+        <v>0.1189979612827301</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5334839820861816</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.4682158827781677</v>
       </c>
       <c r="W83" t="n">
-        <v>0.009455385617911816</v>
+        <v>0.004259924869984388</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5205249786376953</v>
       </c>
       <c r="V84" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.4672075510025024</v>
       </c>
       <c r="W84" t="n">
-        <v>0.001521825673989952</v>
+        <v>0.002842748071998358</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5108470916748047</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.4846016764640808</v>
       </c>
       <c r="W85" t="n">
-        <v>0.003650004509836435</v>
+        <v>0.0006888218340463936</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5733439922332764</v>
       </c>
       <c r="V86" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.468177318572998</v>
       </c>
       <c r="W86" t="n">
-        <v>0.007177339866757393</v>
+        <v>0.01106002926826477</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5197551250457764</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.4840130209922791</v>
       </c>
       <c r="W87" t="n">
-        <v>0.002085212850943208</v>
+        <v>0.001277497969567776</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5198359489440918</v>
       </c>
       <c r="V88" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.8814957141876221</v>
       </c>
       <c r="W88" t="n">
-        <v>0.007024475838989019</v>
+        <v>0.1307977885007858</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5150039196014404</v>
       </c>
       <c r="V89" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.5303795337677002</v>
       </c>
       <c r="W89" t="n">
-        <v>0.01182552240788937</v>
+        <v>0.0002364095125813037</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5433290004730225</v>
       </c>
       <c r="V90" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.901141881942749</v>
       </c>
       <c r="W90" t="n">
-        <v>0.0001251613575732335</v>
+        <v>0.1280300617218018</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5196390151977539</v>
       </c>
       <c r="V91" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.4913477897644043</v>
       </c>
       <c r="W91" t="n">
-        <v>0.0167803168296814</v>
+        <v>0.0008003934635780752</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5240328311920166</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.915859043598175</v>
       </c>
       <c r="W92" t="n">
-        <v>0.004277725704014301</v>
+        <v>0.1535277813673019</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5175600051879883</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.4821665287017822</v>
       </c>
       <c r="W93" t="n">
-        <v>0.006647520698606968</v>
+        <v>0.001252698129974306</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5143780708312988</v>
       </c>
       <c r="V94" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.9362949132919312</v>
       </c>
       <c r="W94" t="n">
-        <v>0.03016588464379311</v>
+        <v>0.1780138164758682</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5149929523468018</v>
       </c>
       <c r="V95" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.5096423029899597</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01559881493449211</v>
+        <v>2.862944893422537e-05</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5215640068054199</v>
       </c>
       <c r="V96" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.9208096861839294</v>
       </c>
       <c r="W96" t="n">
-        <v>0.009061303921043873</v>
+        <v>0.1593971103429794</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5747840404510498</v>
       </c>
       <c r="V97" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.5772234797477722</v>
       </c>
       <c r="W97" t="n">
-        <v>0.009766205213963985</v>
+        <v>5.950864306214498e-06</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5212631225585938</v>
       </c>
       <c r="V98" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.8854358792304993</v>
       </c>
       <c r="W98" t="n">
-        <v>0.01580600440502167</v>
+        <v>0.1326217949390411</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5213749408721924</v>
       </c>
       <c r="V99" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.9880123734474182</v>
       </c>
       <c r="W99" t="n">
-        <v>0.01709280349314213</v>
+        <v>0.2177504897117615</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5110199451446533</v>
       </c>
       <c r="V100" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.4770292043685913</v>
       </c>
       <c r="W100" t="n">
-        <v>0.0002194569242419675</v>
+        <v>0.001155370497144759</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5170350074768066</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.507754921913147</v>
       </c>
       <c r="W101" t="n">
-        <v>0.001084535149857402</v>
+        <v>8.611998782726005e-05</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4043970108032227</v>
       </c>
       <c r="V102" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.885458767414093</v>
       </c>
       <c r="W102" t="n">
-        <v>0.006733272690325975</v>
+        <v>0.2314204126596451</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4082710742950439</v>
       </c>
       <c r="V103" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.5486570596694946</v>
       </c>
       <c r="W103" t="n">
-        <v>0.0007480083149857819</v>
+        <v>0.01970822550356388</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4041609764099121</v>
       </c>
       <c r="V104" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.576455295085907</v>
       </c>
       <c r="W104" t="n">
-        <v>0.1176664531230927</v>
+        <v>0.02968533150851727</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4179270267486572</v>
       </c>
       <c r="V105" t="n">
-        <v>0.624763011932373</v>
+        <v>0.5168519020080566</v>
       </c>
       <c r="W105" t="n">
-        <v>0.04278112575411797</v>
+        <v>0.009786130860447884</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3927009105682373</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.8787184357643127</v>
       </c>
       <c r="W106" t="n">
-        <v>0.006637484300881624</v>
+        <v>0.2362130284309387</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3849389553070068</v>
       </c>
       <c r="V107" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.4821723103523254</v>
       </c>
       <c r="W107" t="n">
-        <v>3.519715028232895e-05</v>
+        <v>0.009454325772821903</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3877031803131104</v>
       </c>
       <c r="V108" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.4992327690124512</v>
       </c>
       <c r="W108" t="n">
-        <v>0.0544239804148674</v>
+        <v>0.01243884954601526</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3920080661773682</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.5449790358543396</v>
       </c>
       <c r="W109" t="n">
-        <v>0.005475157871842384</v>
+        <v>0.02340011671185493</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3860921859741211</v>
       </c>
       <c r="V110" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.4917750954627991</v>
       </c>
       <c r="W110" t="n">
-        <v>0.01338330563157797</v>
+        <v>0.01116887759417295</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3943908214569092</v>
       </c>
       <c r="V111" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.5085059404373169</v>
       </c>
       <c r="W111" t="n">
-        <v>0.05278480425477028</v>
+        <v>0.01302226074039936</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4013011455535889</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.4980101585388184</v>
       </c>
       <c r="W112" t="n">
-        <v>0.005660903174430132</v>
+        <v>0.00935263279825449</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3926570415496826</v>
       </c>
       <c r="V113" t="n">
-        <v>0.480756551027298</v>
+        <v>0.546781063079834</v>
       </c>
       <c r="W113" t="n">
-        <v>0.007761523593217134</v>
+        <v>0.02375421486794949</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3947079181671143</v>
       </c>
       <c r="V114" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.4841281175613403</v>
       </c>
       <c r="W114" t="n">
-        <v>0.005769936833530664</v>
+        <v>0.007995972409844398</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.4087910652160645</v>
       </c>
       <c r="V115" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.9181265234947205</v>
       </c>
       <c r="W115" t="n">
-        <v>0.04645931348204613</v>
+        <v>0.2594226002693176</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3934228420257568</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.4823383092880249</v>
       </c>
       <c r="W116" t="n">
-        <v>0.005926116835325956</v>
+        <v>0.007905960083007812</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3939089775085449</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.8856635689735413</v>
       </c>
       <c r="W117" t="n">
-        <v>0.001738594728522003</v>
+        <v>0.2418225854635239</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4036209583282471</v>
       </c>
       <c r="V118" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.5486612319946289</v>
       </c>
       <c r="W118" t="n">
-        <v>0.04938541352748871</v>
+        <v>0.02103668078780174</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3935999870300293</v>
       </c>
       <c r="V119" t="n">
-        <v>0.551414966583252</v>
+        <v>0.5779828429222107</v>
       </c>
       <c r="W119" t="n">
-        <v>0.02490556798875332</v>
+        <v>0.03399703651666641</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3945310115814209</v>
       </c>
       <c r="V120" t="n">
-        <v>0.551541268825531</v>
+        <v>0.4711143374443054</v>
       </c>
       <c r="W120" t="n">
-        <v>0.02465222030878067</v>
+        <v>0.005865005776286125</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.4476549625396729</v>
       </c>
       <c r="V121" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.9011929631233215</v>
       </c>
       <c r="W121" t="n">
-        <v>0.03005116432905197</v>
+        <v>0.2056967169046402</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8787319660186768</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.8938432931900024</v>
       </c>
       <c r="W122" t="n">
-        <v>0.2485451996326447</v>
+        <v>0.0002283522044308484</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9190449714660645</v>
       </c>
       <c r="V123" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.5301663875579834</v>
       </c>
       <c r="W123" t="n">
-        <v>0.01053646951913834</v>
+        <v>0.1512265503406525</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8951570987701416</v>
       </c>
       <c r="V124" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.4972754716873169</v>
       </c>
       <c r="W124" t="n">
-        <v>0.2676278054714203</v>
+        <v>0.1583097875118256</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.9362971782684326</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.9173105955123901</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1009684577584267</v>
+        <v>0.0003604903176892549</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8745379447937012</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.4817172288894653</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1020388752222061</v>
+        <v>0.1543081104755402</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8713929653167725</v>
       </c>
       <c r="V127" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.4771798253059387</v>
       </c>
       <c r="W127" t="n">
-        <v>0.2429018020629883</v>
+        <v>0.1554040014743805</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8622910976409912</v>
       </c>
       <c r="V128" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.489509642124176</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1583379209041595</v>
+        <v>0.1389660090208054</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.9231250286102295</v>
       </c>
       <c r="V129" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.5074836015701294</v>
       </c>
       <c r="W129" t="n">
-        <v>0.07807435095310211</v>
+        <v>0.1727577894926071</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8806638717651367</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.8769631385803223</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1923970282077789</v>
+        <v>1.369542587781325e-05</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8681390285491943</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.492805004119873</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1686116307973862</v>
+        <v>0.1408756226301193</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8684329986572266</v>
       </c>
       <c r="V132" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.88435298204422</v>
       </c>
       <c r="W132" t="n">
-        <v>0.01848054677248001</v>
+        <v>0.0002534458762966096</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9257500171661377</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.98881995677948</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1414476782083511</v>
+        <v>0.003977817483246326</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8819799423217773</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.4869170188903809</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1426524072885513</v>
+        <v>0.1560747176408768</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8689720630645752</v>
       </c>
       <c r="V135" t="n">
-        <v>0.812067985534668</v>
+        <v>0.4976820349693298</v>
       </c>
       <c r="W135" t="n">
-        <v>0.003238074015825987</v>
+        <v>0.1378562897443771</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8602099418640137</v>
       </c>
       <c r="V136" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.4675081968307495</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1619666516780853</v>
+        <v>0.1542146652936935</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.9167518615722656</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.4898934364318848</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1989092230796814</v>
+        <v>0.1822081208229065</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8670730590820312</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.4931737184524536</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1677088737487793</v>
+        <v>0.1398007124662399</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.898280143737793</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.4823806881904602</v>
       </c>
       <c r="W139" t="n">
-        <v>0.06496342271566391</v>
+        <v>0.1729723513126373</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8690590858459473</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.9332012534141541</v>
       </c>
       <c r="W140" t="n">
-        <v>0.04362042620778084</v>
+        <v>0.004114217590540648</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.9196600914001465</v>
       </c>
       <c r="V141" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.577971875667572</v>
       </c>
       <c r="W141" t="n">
-        <v>0.07615028321743011</v>
+        <v>0.1167508363723755</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5304038524627686</v>
       </c>
       <c r="V142" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.5027326941490173</v>
       </c>
       <c r="W142" t="n">
-        <v>0.008262713439762592</v>
+        <v>0.0007656930247321725</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5233049392700195</v>
       </c>
       <c r="V143" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.8939571976661682</v>
       </c>
       <c r="W143" t="n">
-        <v>0.007557411678135395</v>
+        <v>0.1373831033706665</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5133450031280518</v>
       </c>
       <c r="V144" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.8859372138977051</v>
       </c>
       <c r="W144" t="n">
-        <v>0.02058970928192139</v>
+        <v>0.1388249546289444</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.51951003074646</v>
       </c>
       <c r="V145" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.4980410933494568</v>
       </c>
       <c r="W145" t="n">
-        <v>0.001158484490588307</v>
+        <v>0.0004609152674674988</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5838971138000488</v>
       </c>
       <c r="V146" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.4960288405418396</v>
       </c>
       <c r="W146" t="n">
-        <v>0.004777762573212385</v>
+        <v>0.007720833644270897</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5452451705932617</v>
       </c>
       <c r="V147" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.8918935656547546</v>
       </c>
       <c r="W147" t="n">
-        <v>0.009673153981566429</v>
+        <v>0.1201651096343994</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5272109508514404</v>
       </c>
       <c r="V148" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.530664324760437</v>
       </c>
       <c r="W148" t="n">
-        <v>0.08344634622335434</v>
+        <v>1.19257911137538e-05</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.524381160736084</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.4831511974334717</v>
       </c>
       <c r="W149" t="n">
-        <v>0.008555097505450249</v>
+        <v>0.001699909917078912</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5232939720153809</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.4961323738098145</v>
       </c>
       <c r="W150" t="n">
-        <v>0.007616935763508081</v>
+        <v>0.0007377524161711335</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5598330497741699</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.9499645233154297</v>
       </c>
       <c r="W151" t="n">
-        <v>0.01113684382289648</v>
+        <v>0.1522025614976883</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5201730728149414</v>
       </c>
       <c r="V152" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.8942188620567322</v>
       </c>
       <c r="W152" t="n">
-        <v>0.04202340543270111</v>
+        <v>0.1399102509021759</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5201010704040527</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.57723069190979</v>
       </c>
       <c r="W153" t="n">
-        <v>0.003898907219991088</v>
+        <v>0.003263793652877212</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.510624885559082</v>
       </c>
       <c r="V154" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.9349883198738098</v>
       </c>
       <c r="W154" t="n">
-        <v>0.003370526479557157</v>
+        <v>0.1800843179225922</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5118319988250732</v>
       </c>
       <c r="V155" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.9802693724632263</v>
       </c>
       <c r="W155" t="n">
-        <v>0.01260516792535782</v>
+        <v>0.2194335758686066</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5222499370574951</v>
       </c>
       <c r="V156" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.5305696129798889</v>
       </c>
       <c r="W156" t="n">
-        <v>0.02782248519361019</v>
+        <v>6.921700696693733e-05</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.523853063583374</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.5115800499916077</v>
       </c>
       <c r="W157" t="n">
-        <v>0.0004127715365029871</v>
+        <v>0.0001506268599769101</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5236880779266357</v>
       </c>
       <c r="V158" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.5930430889129639</v>
       </c>
       <c r="W158" t="n">
-        <v>0.00203145993873477</v>
+        <v>0.004810117650777102</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5220818519592285</v>
       </c>
       <c r="V159" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.4682881832122803</v>
       </c>
       <c r="W159" t="n">
-        <v>0.01964778080582619</v>
+        <v>0.00289375870488584</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5117719173431396</v>
       </c>
       <c r="V160" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.4839935898780823</v>
       </c>
       <c r="W160" t="n">
-        <v>0.002840241184458137</v>
+        <v>0.0007716355030424893</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5250449180603027</v>
       </c>
       <c r="V161" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.489526093006134</v>
       </c>
       <c r="W161" t="n">
-        <v>0.01531116385012865</v>
+        <v>0.001261586905457079</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.452146053314209</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.4782832264900208</v>
       </c>
       <c r="W162" t="n">
-        <v>0.03672274574637413</v>
+        <v>0.0006831518257968128</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3948590755462646</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.5715503692626953</v>
       </c>
       <c r="W163" t="n">
-        <v>0.004020852502435446</v>
+        <v>0.03121981397271156</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3956458568572998</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.4978806972503662</v>
       </c>
       <c r="W164" t="n">
-        <v>0.01450214814394712</v>
+        <v>0.0104519622400403</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3893918991088867</v>
       </c>
       <c r="V165" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.4775819182395935</v>
       </c>
       <c r="W165" t="n">
-        <v>0.004733169451355934</v>
+        <v>0.007777479477226734</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3954849243164062</v>
       </c>
       <c r="V166" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.8698802590370178</v>
       </c>
       <c r="W166" t="n">
-        <v>0.004948186222463846</v>
+        <v>0.2250509262084961</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3912448883056641</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.4768639802932739</v>
       </c>
       <c r="W167" t="n">
-        <v>0.06292809545993805</v>
+        <v>0.007330629043281078</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3842470645904541</v>
       </c>
       <c r="V168" t="n">
-        <v>0.505409836769104</v>
+        <v>0.5322936177253723</v>
       </c>
       <c r="W168" t="n">
-        <v>0.01468041725456715</v>
+        <v>0.02191778272390366</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3982760906219482</v>
       </c>
       <c r="V169" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.9516850113868713</v>
       </c>
       <c r="W169" t="n">
-        <v>0.0820838063955307</v>
+        <v>0.306261420249939</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.389739990234375</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.9180036187171936</v>
       </c>
       <c r="W170" t="n">
-        <v>0.05565046146512032</v>
+        <v>0.2790624499320984</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3926849365234375</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.4915071725845337</v>
       </c>
       <c r="W171" t="n">
-        <v>0.02557613328099251</v>
+        <v>0.009765834547579288</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.408423900604248</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.5303779244422913</v>
       </c>
       <c r="W172" t="n">
-        <v>0.0007677378598600626</v>
+        <v>0.01487278379499912</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3917689323425293</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.9008298516273499</v>
       </c>
       <c r="W173" t="n">
-        <v>0.004378572572022676</v>
+        <v>0.2591430246829987</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4104421138763428</v>
       </c>
       <c r="V174" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.5119718313217163</v>
       </c>
       <c r="W174" t="n">
-        <v>0.008372105658054352</v>
+        <v>0.01030828338116407</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3913750648498535</v>
       </c>
       <c r="V175" t="n">
-        <v>0.43533855676651</v>
+        <v>0.4719153642654419</v>
       </c>
       <c r="W175" t="n">
-        <v>0.001932788640260696</v>
+        <v>0.006486739963293076</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3909420967102051</v>
       </c>
       <c r="V176" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.470472514629364</v>
       </c>
       <c r="W176" t="n">
-        <v>0.1772668063640594</v>
+        <v>0.006325087510049343</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4081809520721436</v>
       </c>
       <c r="V177" t="n">
-        <v>0.504918098449707</v>
+        <v>0.4982582926750183</v>
       </c>
       <c r="W177" t="n">
-        <v>0.009358075447380543</v>
+        <v>0.008113927207887173</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4007999897003174</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.9189301133155823</v>
       </c>
       <c r="W178" t="n">
-        <v>0.004889419302344322</v>
+        <v>0.2684588134288788</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3890790939331055</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.4929041862487793</v>
       </c>
       <c r="W179" t="n">
-        <v>0.005638028029352427</v>
+        <v>0.01077964995056391</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3854598999023438</v>
       </c>
       <c r="V180" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.4922217726707458</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0588330551981926</v>
+        <v>0.01139809750020504</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4406321048736572</v>
       </c>
       <c r="V181" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.9244419932365417</v>
       </c>
       <c r="W181" t="n">
-        <v>0.03358259797096252</v>
+        <v>0.2340720146894455</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8876419067382812</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.8937146663665771</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1984101831912994</v>
+        <v>3.687840944621712e-05</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8974142074584961</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.9333114624023438</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1548185348510742</v>
+        <v>0.001288612955249846</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8578159809112549</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.530362069606781</v>
       </c>
       <c r="W184" t="n">
-        <v>0.07900838553905487</v>
+        <v>0.1072260662913322</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.9330511093139648</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.9189597368240356</v>
       </c>
       <c r="W185" t="n">
-        <v>0.2091259062290192</v>
+        <v>0.0001985667768167332</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8710827827453613</v>
       </c>
       <c r="V186" t="n">
-        <v>0.473088413476944</v>
+        <v>0.5131415724754333</v>
       </c>
       <c r="W186" t="n">
-        <v>0.1583995223045349</v>
+        <v>0.1281219124794006</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8778951168060303</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.8816472291946411</v>
       </c>
       <c r="W187" t="n">
-        <v>0.175915390253067</v>
+        <v>1.40783477036166e-05</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8687150478363037</v>
       </c>
       <c r="V188" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.5493865013122559</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1552559286355972</v>
+        <v>0.1019707173109055</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.927595853805542</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.5303190350532532</v>
       </c>
       <c r="W189" t="n">
-        <v>0.2043643742799759</v>
+        <v>0.1578288674354553</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8717000484466553</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.5770914554595947</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1789114773273468</v>
+        <v>0.08679421991109848</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8704040050506592</v>
       </c>
       <c r="V191" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.9431679844856262</v>
       </c>
       <c r="W191" t="n">
-        <v>0.003391876351088285</v>
+        <v>0.005294596776366234</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8678629398345947</v>
       </c>
       <c r="V192" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.4929189682006836</v>
       </c>
       <c r="W192" t="n">
-        <v>0.09640515595674515</v>
+        <v>0.1405829787254333</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.9243161678314209</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.8828301429748535</v>
       </c>
       <c r="W193" t="n">
-        <v>0.2117742896080017</v>
+        <v>0.001721090287901461</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8541500568389893</v>
       </c>
       <c r="V194" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.8937364816665649</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1506154835224152</v>
+        <v>0.001567085040733218</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8472039699554443</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.5097339749336243</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1531746238470078</v>
+        <v>0.1138859987258911</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.864548921585083</v>
       </c>
       <c r="V196" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.5124327540397644</v>
       </c>
       <c r="W196" t="n">
-        <v>0.04303625598549843</v>
+        <v>0.1239857971668243</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.9104290008544922</v>
       </c>
       <c r="V197" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.5770599246025085</v>
       </c>
       <c r="W197" t="n">
-        <v>0.007620551623404026</v>
+        <v>0.1111349388957024</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8812351226806641</v>
       </c>
       <c r="V198" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.4822506308555603</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1487589180469513</v>
+        <v>0.1591886281967163</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8686490058898926</v>
       </c>
       <c r="V199" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.9271782636642456</v>
       </c>
       <c r="W199" t="n">
-        <v>0.05921883136034012</v>
+        <v>0.003425674047321081</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8651061058044434</v>
       </c>
       <c r="V200" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.4673519134521484</v>
       </c>
       <c r="W200" t="n">
-        <v>0.06067049130797386</v>
+        <v>0.1582084000110626</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9043800830841064</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.4858419299125671</v>
       </c>
       <c r="W201" t="n">
-        <v>0.162698045372963</v>
+        <v>0.1751741915941238</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5277149677276611</v>
       </c>
       <c r="V202" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.4973187446594238</v>
       </c>
       <c r="W202" t="n">
-        <v>0.0005771988653577864</v>
+        <v>0.0009239303763024509</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5076601505279541</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.5779476761817932</v>
       </c>
       <c r="W203" t="n">
-        <v>0.00118773861322552</v>
+        <v>0.004940336104482412</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5385959148406982</v>
       </c>
       <c r="V204" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.5302672386169434</v>
       </c>
       <c r="W204" t="n">
-        <v>0.03930147737264633</v>
+        <v>6.936684803804383e-05</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5260140895843506</v>
       </c>
       <c r="V205" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.4933533072471619</v>
       </c>
       <c r="W205" t="n">
-        <v>0.002480934374034405</v>
+        <v>0.00106672674883157</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5665910243988037</v>
       </c>
       <c r="V206" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.4869126081466675</v>
       </c>
       <c r="W206" t="n">
-        <v>0.003311859909445047</v>
+        <v>0.006348649971187115</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.517657995223999</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.9373987913131714</v>
       </c>
       <c r="W207" t="n">
-        <v>0.001242012600414455</v>
+        <v>0.1761823296546936</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.518867015838623</v>
       </c>
       <c r="V208" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.8943923115730286</v>
       </c>
       <c r="W208" t="n">
-        <v>0.00738103361800313</v>
+        <v>0.1410192549228668</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5236029624938965</v>
       </c>
       <c r="V209" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.4834771156311035</v>
       </c>
       <c r="W209" t="n">
-        <v>0.01775778643786907</v>
+        <v>0.001610083621926606</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5124869346618652</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.4715290665626526</v>
       </c>
       <c r="W210" t="n">
-        <v>0.005848242435604334</v>
+        <v>0.001677546999417245</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5741550922393799</v>
       </c>
       <c r="V211" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.9000411629676819</v>
       </c>
       <c r="W211" t="n">
-        <v>2.926117485912982e-05</v>
+        <v>0.1062017306685448</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5272829532623291</v>
       </c>
       <c r="V212" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.5928438901901245</v>
       </c>
       <c r="W212" t="n">
-        <v>0.0172277893871069</v>
+        <v>0.004298236221075058</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.525108814239502</v>
       </c>
       <c r="V213" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.4904086589813232</v>
       </c>
       <c r="W213" t="n">
-        <v>0.0007595664937980473</v>
+        <v>0.001204100786708295</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5241210460662842</v>
       </c>
       <c r="V214" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.5305991768836975</v>
       </c>
       <c r="W214" t="n">
-        <v>0.01756217144429684</v>
+        <v>4.196617737761699e-05</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5155990123748779</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.5304405689239502</v>
       </c>
       <c r="W215" t="n">
-        <v>0.006287296768277884</v>
+        <v>0.0002202718023909256</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5260879993438721</v>
       </c>
       <c r="V216" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.4895963072776794</v>
       </c>
       <c r="W216" t="n">
-        <v>0.01431572437286377</v>
+        <v>0.001331643550656736</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5229108333587646</v>
       </c>
       <c r="V217" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.4823253154754639</v>
       </c>
       <c r="W217" t="n">
-        <v>0.004227394238114357</v>
+        <v>0.001647184253670275</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5236771106719971</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.8935912251472473</v>
       </c>
       <c r="W218" t="n">
-        <v>0.002734296256676316</v>
+        <v>0.1368364542722702</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.534160852432251</v>
       </c>
       <c r="V219" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.4836387634277344</v>
       </c>
       <c r="W219" t="n">
-        <v>0.0809745118021965</v>
+        <v>0.00255248136818409</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5615971088409424</v>
       </c>
       <c r="V220" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.4978043437004089</v>
       </c>
       <c r="W220" t="n">
-        <v>0.03351244330406189</v>
+        <v>0.004069516900926828</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5339498519897461</v>
       </c>
       <c r="V221" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.5018035173416138</v>
       </c>
       <c r="W221" t="n">
-        <v>0.00698856869712472</v>
+        <v>0.001033386797644198</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.5127260684967041</v>
       </c>
       <c r="V222" t="n">
-        <v>0.561543881893158</v>
+        <v>0.5078130960464478</v>
       </c>
       <c r="W222" t="n">
-        <v>0.002383178798481822</v>
+        <v>2.413729816908017e-05</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.4981389045715332</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.8937470316886902</v>
       </c>
       <c r="W223" t="n">
-        <v>0.001588414190337062</v>
+        <v>0.1565057933330536</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.5041730403900146</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.4910632967948914</v>
       </c>
       <c r="W224" t="n">
-        <v>0.002554855076596141</v>
+        <v>0.0001718653802527115</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.4970219135284424</v>
       </c>
       <c r="V225" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.4770395159721375</v>
       </c>
       <c r="W225" t="n">
-        <v>0.1022266894578934</v>
+        <v>0.0003992962010670453</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.476809024810791</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.4771467447280884</v>
       </c>
       <c r="W226" t="n">
-        <v>0.0016912876162678</v>
+        <v>1.140547425393379e-07</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.5442709922790527</v>
       </c>
       <c r="V227" t="n">
-        <v>0.435836523771286</v>
+        <v>0.5024519562721252</v>
       </c>
       <c r="W227" t="n">
-        <v>0.01175803411751986</v>
+        <v>0.001748831826262176</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3988668918609619</v>
       </c>
       <c r="V228" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.9252645373344421</v>
       </c>
       <c r="W228" t="n">
-        <v>0.1121576279401779</v>
+        <v>0.2770944833755493</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4218258857727051</v>
       </c>
       <c r="V229" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.5306869745254517</v>
       </c>
       <c r="W229" t="n">
-        <v>0.04123739525675774</v>
+        <v>0.01185073703527451</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3961429595947266</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.8753235936164856</v>
       </c>
       <c r="W230" t="n">
-        <v>0.02288247831165791</v>
+        <v>0.2296140789985657</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3879220485687256</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.8780574202537537</v>
       </c>
       <c r="W231" t="n">
-        <v>0.02735147066414356</v>
+        <v>0.2402326762676239</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3898341655731201</v>
       </c>
       <c r="V232" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.8892202377319336</v>
       </c>
       <c r="W232" t="n">
-        <v>0.08652239292860031</v>
+        <v>0.2493864446878433</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4767980575561523</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.5026957392692566</v>
       </c>
       <c r="W233" t="n">
-        <v>0.002185758436098695</v>
+        <v>0.0006706899148412049</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3968770503997803</v>
       </c>
       <c r="V234" t="n">
-        <v>0.474732518196106</v>
+        <v>0.5323352217674255</v>
       </c>
       <c r="W234" t="n">
-        <v>0.006061473861336708</v>
+        <v>0.01834891550242901</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.5526659488677979</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.5771426558494568</v>
       </c>
       <c r="W235" t="n">
-        <v>0.0002797596389427781</v>
+        <v>0.0005991091602481902</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4154059886932373</v>
       </c>
       <c r="V236" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.5013495683670044</v>
       </c>
       <c r="W236" t="n">
-        <v>0.09576935321092606</v>
+        <v>0.007386298850178719</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4641330242156982</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.9102379083633423</v>
       </c>
       <c r="W237" t="n">
-        <v>0.0007902440265752375</v>
+        <v>0.1990095674991608</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3935520648956299</v>
       </c>
       <c r="V238" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.5131358504295349</v>
       </c>
       <c r="W238" t="n">
-        <v>0.003686389653012156</v>
+        <v>0.01430028211325407</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.4480860233306885</v>
       </c>
       <c r="V239" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.4814568161964417</v>
       </c>
       <c r="W239" t="n">
-        <v>0.003144262591376901</v>
+        <v>0.001113609760068357</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3876211643218994</v>
       </c>
       <c r="V240" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.923995316028595</v>
       </c>
       <c r="W240" t="n">
-        <v>0.02693074382841587</v>
+        <v>0.2876972258090973</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4005320072174072</v>
       </c>
       <c r="V241" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.4832497239112854</v>
       </c>
       <c r="W241" t="n">
-        <v>0.0003314768837299198</v>
+        <v>0.006842220667749643</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8907570838928223</v>
       </c>
       <c r="V242" t="n">
-        <v>0.475897878408432</v>
+        <v>0.5103830099105835</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1721081584692001</v>
+        <v>0.1446844339370728</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9215109348297119</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.4922693967819214</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1788128167390823</v>
+        <v>0.184248298406601</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.9344489574432373</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.9075126051902771</v>
       </c>
       <c r="W244" t="n">
-        <v>0.2190423756837845</v>
+        <v>0.0007255670498125255</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8702609539031982</v>
       </c>
       <c r="V245" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.5117965936660767</v>
       </c>
       <c r="W245" t="n">
-        <v>0.06197450309991837</v>
+        <v>0.1284966915845871</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8737151622772217</v>
       </c>
       <c r="V246" t="n">
-        <v>0.458252340555191</v>
+        <v>0.4811577200889587</v>
       </c>
       <c r="W246" t="n">
-        <v>0.1726093590259552</v>
+        <v>0.1541013419628143</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8750300407409668</v>
       </c>
       <c r="V247" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.5342829823493958</v>
       </c>
       <c r="W247" t="n">
-        <v>0.04751789197325706</v>
+        <v>0.1161085590720177</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.87123703956604</v>
       </c>
       <c r="V248" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.5922402739524841</v>
       </c>
       <c r="W248" t="n">
-        <v>0.07106679677963257</v>
+        <v>0.077839195728302</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8923168182373047</v>
       </c>
       <c r="V249" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.9221448302268982</v>
       </c>
       <c r="W249" t="n">
-        <v>0.2084512859582901</v>
+        <v>0.0008897103252820671</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8733329772949219</v>
       </c>
       <c r="V250" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.886191725730896</v>
       </c>
       <c r="W250" t="n">
-        <v>0.06191249191761017</v>
+        <v>0.0001653474173508584</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8789520263671875</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.4837422370910645</v>
       </c>
       <c r="W251" t="n">
-        <v>0.06497849524021149</v>
+        <v>0.1561907827854156</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8781900405883789</v>
       </c>
       <c r="V252" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.8924873471260071</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1955161243677139</v>
+        <v>0.0002044129796558991</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8753659725189209</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.901755154132843</v>
       </c>
       <c r="W253" t="n">
-        <v>0.09199755638837814</v>
+        <v>0.0006963888881728053</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8675529956817627</v>
       </c>
       <c r="V254" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.4922357797622681</v>
       </c>
       <c r="W254" t="n">
-        <v>0.05839413776993752</v>
+        <v>0.1408630162477493</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8903629779815674</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.9111934900283813</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1672637462615967</v>
+        <v>0.000433910230640322</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8723328113555908</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.8750136494636536</v>
       </c>
       <c r="W256" t="n">
-        <v>0.170979842543602</v>
+        <v>7.186893071775557e-06</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8755631446838379</v>
       </c>
       <c r="V257" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.8868420720100403</v>
       </c>
       <c r="W257" t="n">
-        <v>0.04713029786944389</v>
+        <v>0.0001272141962544993</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8796830177307129</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.4807388186454773</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1708226650953293</v>
+        <v>0.15915647149086</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.9068310260772705</v>
       </c>
       <c r="V259" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.5132556557655334</v>
       </c>
       <c r="W259" t="n">
-        <v>0.02994714304804802</v>
+        <v>0.1549015790224075</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8710601329803467</v>
       </c>
       <c r="V260" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.954164445400238</v>
       </c>
       <c r="W260" t="n">
-        <v>0.05616910755634308</v>
+        <v>0.006906326860189438</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8845589160919189</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.4909758567810059</v>
       </c>
       <c r="W261" t="n">
-        <v>0.20118647813797</v>
+        <v>0.1549076288938522</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5159790515899658</v>
       </c>
       <c r="V262" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.8939365744590759</v>
       </c>
       <c r="W262" t="n">
-        <v>0.003692413913086057</v>
+        <v>0.1428518891334534</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5493819713592529</v>
       </c>
       <c r="V263" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.4978429675102234</v>
       </c>
       <c r="W263" t="n">
-        <v>0.03576292470097542</v>
+        <v>0.002656268887221813</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5774469375610352</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.4965644478797913</v>
       </c>
       <c r="W264" t="n">
-        <v>0.01434083841741085</v>
+        <v>0.006541977170854807</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5230410099029541</v>
       </c>
       <c r="V265" t="n">
-        <v>0.569115161895752</v>
+        <v>0.4923884272575378</v>
       </c>
       <c r="W265" t="n">
-        <v>0.002122827572748065</v>
+        <v>0.0009395808447152376</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5269298553466797</v>
       </c>
       <c r="V266" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.479024350643158</v>
       </c>
       <c r="W266" t="n">
-        <v>0.01732474751770496</v>
+        <v>0.002294937381520867</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5256891250610352</v>
       </c>
       <c r="V267" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.530620813369751</v>
       </c>
       <c r="W267" t="n">
-        <v>0.00450634490698576</v>
+        <v>2.432154906273354e-05</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5385298728942871</v>
       </c>
       <c r="V268" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.5303276181221008</v>
       </c>
       <c r="W268" t="n">
-        <v>0.07739956676959991</v>
+        <v>6.727698200847954e-05</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5855391025543213</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.4682712554931641</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01702406443655491</v>
+        <v>0.01375174801796675</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5242531299591064</v>
       </c>
       <c r="V270" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.9593417048454285</v>
       </c>
       <c r="W270" t="n">
-        <v>0.007784303743392229</v>
+        <v>0.189302071928978</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5193619728088379</v>
       </c>
       <c r="V271" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.8816483616828918</v>
       </c>
       <c r="W271" t="n">
-        <v>0.005950924940407276</v>
+        <v>0.1312514245510101</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5350341796875</v>
       </c>
       <c r="V272" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.9009235501289368</v>
       </c>
       <c r="W272" t="n">
-        <v>0.02252277918159962</v>
+        <v>0.1338750272989273</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5204010009765625</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.4867548942565918</v>
       </c>
       <c r="W273" t="n">
-        <v>0.000816159532405436</v>
+        <v>0.00113206054084003</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5391111373901367</v>
       </c>
       <c r="V274" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.4897967576980591</v>
       </c>
       <c r="W274" t="n">
-        <v>0.07787501811981201</v>
+        <v>0.002431908156722784</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5268139839172363</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.4772002696990967</v>
       </c>
       <c r="W275" t="n">
-        <v>0.001718914951197803</v>
+        <v>0.002461520722135901</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5247821807861328</v>
       </c>
       <c r="V276" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.4819792509078979</v>
       </c>
       <c r="W276" t="n">
-        <v>0.02129785902798176</v>
+        <v>0.00183209078386426</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5290441513061523</v>
       </c>
       <c r="V277" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.4924437403678894</v>
       </c>
       <c r="W277" t="n">
-        <v>0.008727641776204109</v>
+        <v>0.001339590060524642</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5167069435119629</v>
       </c>
       <c r="V278" t="n">
-        <v>0.551807165145874</v>
+        <v>0.5302501320838928</v>
       </c>
       <c r="W278" t="n">
-        <v>0.001232025562785566</v>
+        <v>0.0001834179565776139</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.52783203125</v>
       </c>
       <c r="V279" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.5306383371353149</v>
       </c>
       <c r="W279" t="n">
-        <v>0.002800196642056108</v>
+        <v>7.87535282142926e-06</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5797691345214844</v>
       </c>
       <c r="V280" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.493122935295105</v>
       </c>
       <c r="W280" t="n">
-        <v>0.02066215500235558</v>
+        <v>0.007507564034312963</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5262019634246826</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.9115068316459656</v>
       </c>
       <c r="W281" t="n">
-        <v>0.002732616616412997</v>
+        <v>0.1484598368406296</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4189000129699707</v>
       </c>
       <c r="V282" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.8755910396575928</v>
       </c>
       <c r="W282" t="n">
-        <v>0.002078818855807185</v>
+        <v>0.2085666954517365</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4142658710479736</v>
       </c>
       <c r="V283" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.4676008224487305</v>
       </c>
       <c r="W283" t="n">
-        <v>0.06705843657255173</v>
+        <v>0.002844617003574967</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.403770923614502</v>
       </c>
       <c r="V284" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.9363265037536621</v>
       </c>
       <c r="W284" t="n">
-        <v>0.009491070173680782</v>
+        <v>0.2836154401302338</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4019989967346191</v>
       </c>
       <c r="V285" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.4922960996627808</v>
       </c>
       <c r="W285" t="n">
-        <v>0.1238310784101486</v>
+        <v>0.008153567090630531</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4558260440826416</v>
       </c>
       <c r="V286" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.4844493269920349</v>
       </c>
       <c r="W286" t="n">
-        <v>4.987747161067091e-06</v>
+        <v>0.0008192923269234598</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3996250629425049</v>
       </c>
       <c r="V287" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.932350754737854</v>
       </c>
       <c r="W287" t="n">
-        <v>0.001323961419984698</v>
+        <v>0.2837966680526733</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4017519950866699</v>
       </c>
       <c r="V288" t="n">
-        <v>0.471180647611618</v>
+        <v>0.8725817799568176</v>
       </c>
       <c r="W288" t="n">
-        <v>0.004820337984710932</v>
+        <v>0.2216806858778</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4000520706176758</v>
       </c>
       <c r="V289" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.4817052483558655</v>
       </c>
       <c r="W289" t="n">
-        <v>0.1099803522229195</v>
+        <v>0.006667241454124451</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3912990093231201</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.4838272333145142</v>
       </c>
       <c r="W290" t="n">
-        <v>0.02594100683927536</v>
+        <v>0.008561472408473492</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3927931785583496</v>
       </c>
       <c r="V291" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.9783940315246582</v>
       </c>
       <c r="W291" t="n">
-        <v>0.01298767607659101</v>
+        <v>0.3429283499717712</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4574050903320312</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.5778929591178894</v>
       </c>
       <c r="W292" t="n">
-        <v>7.653993088752031e-05</v>
+        <v>0.01451732683926821</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4018609523773193</v>
       </c>
       <c r="V293" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.9799526929855347</v>
       </c>
       <c r="W293" t="n">
-        <v>0.0005284025683067739</v>
+        <v>0.3341900706291199</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3922829627990723</v>
       </c>
       <c r="V294" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.4952439665794373</v>
       </c>
       <c r="W294" t="n">
-        <v>0.006506249774247408</v>
+        <v>0.01060096826404333</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.4058198928833008</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.8732597827911377</v>
       </c>
       <c r="W295" t="n">
-        <v>0.02424266561865807</v>
+        <v>0.2185000479221344</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4023680686950684</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.4834610819816589</v>
       </c>
       <c r="W296" t="n">
-        <v>0.02285961806774139</v>
+        <v>0.006576076615601778</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4331111907958984</v>
       </c>
       <c r="V297" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.5147632956504822</v>
       </c>
       <c r="W297" t="n">
-        <v>0.002889870898798108</v>
+        <v>0.006667066365480423</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4511008262634277</v>
       </c>
       <c r="V298" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.9101755023002625</v>
       </c>
       <c r="W298" t="n">
-        <v>0.02988759614527225</v>
+        <v>0.210749551653862</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4044609069824219</v>
       </c>
       <c r="V299" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.5323253870010376</v>
       </c>
       <c r="W299" t="n">
-        <v>0.02170825004577637</v>
+        <v>0.01634932495653629</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3995659351348877</v>
       </c>
       <c r="V300" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.5512411594390869</v>
       </c>
       <c r="W300" t="n">
-        <v>0.0004489347338676453</v>
+        <v>0.02300537377595901</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.39894700050354</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.8751382231712341</v>
       </c>
       <c r="W301" t="n">
-        <v>0.003435417544096708</v>
+        <v>0.2267580777406693</v>
       </c>
     </row>
     <row r="302" spans="1:23">
